--- a/DATABASE VER 1.0.1.xlsx
+++ b/DATABASE VER 1.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Gomez\Documents\GitHub\Facturacion_Veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4AA03-E606-4D0F-8C61-FC1C293491F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAEEE3-272B-4CBA-A1B4-4959E5A6F508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F34F5C5-2797-47A4-814F-9BE12145F369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>FACTURAS</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">      id_factura1</t>
+  </si>
+  <si>
+    <t>direccion</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -335,11 +338,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,6 +370,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3545F0A-8E5E-4494-A917-75BA83380046}">
   <dimension ref="A2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2495,6 +2511,9 @@
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2522,6 +2541,9 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="11"/>

--- a/DATABASE VER 1.0.1.xlsx
+++ b/DATABASE VER 1.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Gomez\Documents\GitHub\Facturacion_Veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAEEE3-272B-4CBA-A1B4-4959E5A6F508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DA8E5D-4F00-4315-AB45-E26394DA45A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F34F5C5-2797-47A4-814F-9BE12145F369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>FACTURAS</t>
   </si>
@@ -53,21 +53,9 @@
     <t>id_persona1</t>
   </si>
   <si>
-    <t>id_animal1</t>
-  </si>
-  <si>
-    <t>sucursal</t>
-  </si>
-  <si>
-    <t>ganancia</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -92,24 +80,12 @@
     <t>String</t>
   </si>
   <si>
-    <t>estadoPendiente</t>
-  </si>
-  <si>
     <t>Telefono</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>ANIMALES</t>
-  </si>
-  <si>
-    <t>id_animal</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>PRODUCTOS</t>
   </si>
   <si>
@@ -122,15 +98,6 @@
     <t xml:space="preserve">      id_persona1</t>
   </si>
   <si>
-    <t xml:space="preserve">      ganancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      sucursal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      estadoPendiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">      fecha</t>
   </si>
   <si>
@@ -140,9 +107,6 @@
     <t xml:space="preserve">      id_persona</t>
   </si>
   <si>
-    <t xml:space="preserve">      id_animal1</t>
-  </si>
-  <si>
     <t xml:space="preserve">      nombre</t>
   </si>
   <si>
@@ -158,9 +122,6 @@
     <t>PERSONAS</t>
   </si>
   <si>
-    <t xml:space="preserve">      id_animal</t>
-  </si>
-  <si>
     <t xml:space="preserve">      id_producto1</t>
   </si>
   <si>
@@ -168,13 +129,64 @@
   </si>
   <si>
     <t>direccion</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      direccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      estado</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>DETALLES</t>
+  </si>
+  <si>
+    <t>id_detalle</t>
+  </si>
+  <si>
+    <t>id_factura1</t>
+  </si>
+  <si>
+    <t>id_producto1</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Cedula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +196,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -235,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -340,10 +360,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -353,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -370,8 +425,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,13 +657,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -659,13 +720,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -722,13 +783,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -967,84 +1028,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Elipse 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDB560B-DA32-42BD-8E96-2D88A654166C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8996362" y="2058988"/>
-          <a:ext cx="111125" cy="146050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="43000">
-              <a:schemeClr val="bg1"/>
-            </a:gs>
-            <a:gs pos="54000">
-              <a:schemeClr val="accent1"/>
-            </a:gs>
-            <a:gs pos="58000">
-              <a:schemeClr val="accent1"/>
-            </a:gs>
-            <a:gs pos="97000">
-              <a:schemeClr val="accent1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1218,66 +1201,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Elipse 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6627ACEB-EFC6-45CF-8434-53857AB1F42E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6870700" y="2247900"/>
-          <a:ext cx="139700" cy="120650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1543,75 +1466,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11233150" y="1117600"/>
-          <a:ext cx="1035050" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>  N.1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rombo 34" descr="N.N:&#10;">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6572C144-950C-4DB8-A6F9-82111A16774E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12846050" y="1835150"/>
           <a:ext cx="1035050" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1866,59 +1720,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Conector recto 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7502B0B-78E9-416B-9A45-B34F8118825A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="35" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12179300" y="2070100"/>
-          <a:ext cx="666750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2021,57 +1822,426 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127299</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12886</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Conector recto 59">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF520023-9109-445F-87AD-E7075BA8FC36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43934628-22AB-11FC-2F69-B3D165AFF760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13360400" y="2305050"/>
-          <a:ext cx="3175" cy="247650"/>
+        <a:xfrm>
+          <a:off x="6350" y="3390900"/>
+          <a:ext cx="5810549" cy="3619686"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Elipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1A6AA2-E989-4229-A85E-39E83A019FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="2451100"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Elipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A074C33-7DB5-4FC7-9300-E374E964A5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="2635250"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Elipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01849F4-9411-42FF-8BE7-B63C6ED09D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="2819400"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Elipse 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EB0FBF-7B11-44DB-8F7F-7B055E7D4519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="2819400"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Elipse 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FAB313-7BFB-4B82-BCDA-934F49AF01D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="2635250"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Elipse 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964CA9B1-B02A-4EBE-957A-1B56FEA7B96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="3187700"/>
+          <a:ext cx="139700" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2374,14 +2544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3545F0A-8E5E-4494-A917-75BA83380046}">
-  <dimension ref="A2:Q20"/>
+  <dimension ref="A2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.90625" customWidth="1"/>
     <col min="10" max="10" width="19.36328125" customWidth="1"/>
@@ -2389,12 +2560,12 @@
     <col min="16" max="16" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2402,16 +2573,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -2419,11 +2584,9 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2431,120 +2594,110 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I5" s="11"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I6" s="11"/>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="6"/>
@@ -2552,11 +2705,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I10" s="11"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2565,206 +2716,188 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I11" s="11"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>29</v>
+      <c r="L14" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I15" s="11"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="J15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="J16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="12"/>
+      <c r="N19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
